--- a/data/Households - level of internet access_transformed.xlsx
+++ b/data/Households - level of internet access_transformed.xlsx
@@ -441,64 +441,64 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Évszám</t>
+          <t>Évek</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Az internet-hozzáférés szintje</t>
+          <t>Az internet hozzáférés szintje</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>93.09</v>
+        <v>87.15000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94.48</v>
+        <v>90.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88.5</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,58 +507,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>92.8</v>
+        <v>97.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96.09</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91.66</v>
+        <v>93.15000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93.22</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,73 +567,73 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93.92</v>
+        <v>94.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>86.90000000000001</v>
+        <v>89.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96.45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93.34</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.56</v>
+        <v>89.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,103 +642,101 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91.89</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.3</v>
+        <v>90.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>93.06999999999999</v>
+        <v>91.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>88.59</v>
+        <v>72.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.06</v>
+        <v>75.48999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>92.73</v>
+        <v>72.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>93.54000000000001</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,73 +745,73 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>98.86</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>94.98</v>
+        <v>87.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>93.3</v>
+        <v>78.84999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>89.01000000000001</v>
+        <v>75.06999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>92</v>
+        <v>83.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,28 +820,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>93.72</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90.59999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,84 +850,88 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96.78</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94.87</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>80.52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99.01000000000001</v>
+        <v>86.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>99.66</v>
+        <v>93.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>92.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -938,56 +940,58 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>81.55</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>81.28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>89.61</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>97.72</v>
+        <v>91.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -996,71 +1000,73 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>85.39</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>95.54000000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>89.31</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>92.44</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>94.44</v>
+        <v>95.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1069,22 +1075,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>87.31</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>91.48</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="45">
@@ -1095,26 +1101,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>95.16</v>
+        <v>95.43000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>91.41</v>
+        <v>96.14</v>
       </c>
     </row>
     <row r="47">
@@ -1125,45 +1131,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>92.41</v>
+        <v>90.43000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>93.22</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>85.48999999999999</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1172,88 +1180,88 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>96.08</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>92.25</v>
+        <v>91.81999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>85.52</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>91.45</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>94</v>
+        <v>93.09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>91.39</v>
+        <v>89.68000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1262,73 +1270,73 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>87.70999999999999</v>
+        <v>92.44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>97.64</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>91.44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>93.39</v>
+        <v>94.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>98.28</v>
+        <v>96.78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1337,28 +1345,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>93.15000000000001</v>
+        <v>97.59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>93.33</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1367,116 +1375,116 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>88.15000000000001</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>89.41</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>92.59999999999999</v>
+        <v>90.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>90.65000000000001</v>
-      </c>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>97.59</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>94.33</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>95.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99.01000000000001</v>
+        <v>94.83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1484,53 +1492,59 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>91.41</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>80.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>80.95999999999999</v>
+        <v>85.06999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1538,27 +1552,29 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>85.48999999999999</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>98.44</v>
+        <v>78.54000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1567,41 +1583,43 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>83.23999999999999</v>
+        <v>91.44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>94.15000000000001</v>
+        <v>87.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>92.73</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1610,73 +1628,69 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>92.3</v>
+        <v>90.78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>91.97</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>83.53</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>89.31</v>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>96.14</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1685,22 +1699,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>91.88</v>
+        <v>98.36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>91.81999999999999</v>
+        <v>98.48</v>
       </c>
     </row>
     <row r="87">
@@ -1711,32 +1725,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>97.5</v>
+        <v>90.59</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>85.06999999999999</v>
+        <v>93.92</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1745,37 +1759,35 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>95.92</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>93.33</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>86.09</v>
+        <v>91.81999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1786,47 +1798,47 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>90.48999999999999</v>
+        <v>85.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>93.41</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>91.15000000000001</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1835,28 +1847,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>86.55</v>
+        <v>90.48999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>99.18000000000001</v>
+        <v>91.89</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Kosovo*</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1864,104 +1876,98 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>90.78</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Kosovo*</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>90.54000000000001</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Kosovo*</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>98.56</v>
+        <v>93.19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Kosovo*</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>95</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Kosovo*</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>92.42</v>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>87.34</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>88.73999999999999</v>
+        <v>91.39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1970,43 +1976,43 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>93.04000000000001</v>
+        <v>91.15000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>89.95999999999999</v>
+        <v>89.73</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>96.56</v>
+        <v>93.06999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2015,101 +2021,103 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>93.23</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>98.36</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>98.93000000000001</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>98.67</v>
+        <v>82.13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>81.52</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>75.48999999999999</v>
+        <v>93.56999999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>80.76000000000001</v>
+        <v>97.64</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2118,86 +2126,88 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>83.73999999999999</v>
+        <v>99.18000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>90.87</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>81.51000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>91.98</v>
+        <v>93.54000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>86.08</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>91.3</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2206,43 +2216,43 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>90.86</v>
+        <v>90.36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>78.84999999999999</v>
+        <v>90.54000000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>88.02</v>
+        <v>81.28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2251,73 +2261,73 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>95.27</v>
+        <v>80.26000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>95.8</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>89.98</v>
+        <v>80.95999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>91.81999999999999</v>
+        <v>80.76000000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>80.38</v>
+        <v>98.86</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2326,101 +2336,101 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>95.38</v>
+        <v>96.95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>98.28</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>85</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>88.09999999999999</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>92.78</v>
+        <v>81.62</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>89.73</v>
+        <v>83.73999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>82.13</v>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2429,73 +2439,71 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>93.56999999999999</v>
+        <v>79.39</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>87.63</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>90.36</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>96.95</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>90.40000000000001</v>
+        <v>98.93000000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2504,88 +2512,88 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>90.38</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>84.48999999999999</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>86.23999999999999</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>89.97</v>
+        <v>92.42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>85.78</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>96</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2594,71 +2602,73 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>93.94</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>98.48</v>
+        <v>87.34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>96.2</v>
+        <v>80.94</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>89.01000000000001</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>97.3</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2667,43 +2677,43 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>72.84</v>
+        <v>84.48999999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>80.26000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>79.39</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2712,43 +2722,43 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>87.15000000000001</v>
+        <v>86.23999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>80.95</v>
+        <v>89.41</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>90.73</v>
+        <v>88.73999999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2757,43 +2767,43 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>96.44</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>89.68000000000001</v>
+        <v>85.39</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>89.73</v>
+        <v>81.51000000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2802,28 +2812,28 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>75.06999999999999</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>87</v>
+        <v>83.23999999999999</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2832,88 +2842,88 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>95.43000000000001</v>
+        <v>82.19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>94.83</v>
+        <v>85.78</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>90.43000000000001</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>90.59</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>78.54000000000001</v>
+        <v>90.65000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>91.44</v>
+        <v>93.04000000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2922,103 +2932,103 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>90.17</v>
+        <v>88.95999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>80.52</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>85.17</v>
+        <v>93.72</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>89.61</v>
+        <v>89.97</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>85.45</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>81.52</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>95.2</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3027,28 +3037,28 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>86.2</v>
+        <v>91.44</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>86.08</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3057,73 +3067,73 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>98.41</v>
+        <v>96.06</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>89.91</v>
+        <v>93.23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>86.75</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>80.94</v>
+        <v>94.33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>83.61</v>
+        <v>93.94</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3132,88 +3142,84 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>88.95999999999999</v>
+        <v>95.51000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>82.19</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>94.36</v>
-      </c>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>96.06</v>
+        <v>99.66</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>97.7</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>98.38</v>
+        <v>94.15000000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3222,58 +3228,58 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>95.51000000000001</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>95.84999999999999</v>
+        <v>95.54000000000001</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>72.03</v>
+        <v>91.98</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>74.25</v>
+        <v>90.73</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3282,68 +3288,62 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>81.62</v>
+        <v>95.84999999999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>85.45</v>
-      </c>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>80.14</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>88.3</v>
-      </c>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>93.19</v>
-      </c>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Households - level of internet access_transformed.xlsx
+++ b/data/Households - level of internet access_transformed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,14 +446,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Az internet hozzáférés szintje</t>
+          <t>Internet hozzáférés szintje</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Albánia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Albánia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Albánia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Albánia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Albánia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ausztria</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ausztria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ausztria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ausztria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ausztria</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bosznia-Hercegovina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bosznia-Hercegovina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bosznia-Hercegovina</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bosznia-Hercegovina</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bosznia-Hercegovina</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgária</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -826,7 +826,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Horvátország</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Horvátország</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Horvátország</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -871,7 +871,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Horvátország</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Horvátország</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ciprus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ciprus</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ciprus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ciprus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -961,7 +961,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ciprus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Csehország</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -991,7 +991,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Csehország</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Csehország</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Csehország</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Csehország</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dánia</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dánia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1081,7 +1081,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dánia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dánia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Dánia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1126,7 +1126,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Észtország</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1141,7 +1141,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Észtország</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Észtország</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Észtország</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Észtország</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1201,7 +1201,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>az Európai Unió (27 ország)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>az Európai Unió (27 ország)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1231,7 +1231,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>az Európai Unió (27 ország)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>az Európai Unió (27 ország)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>European Union - 27 countries (from 2020)</t>
+          <t>az Európai Unió (27 ország)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finnország</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finnország</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finnország</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finnország</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finnország</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1351,7 +1351,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Franciaország</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1366,7 +1366,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Franciaország</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Franciaország</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Franciaország</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1411,7 +1411,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Franciaország</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Németország</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1439,7 +1439,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Németország</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Németország</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Németország</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Németország</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Görögország</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1514,7 +1514,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Görögország</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1529,7 +1529,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Görögország</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Görögország</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Görögország</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Magyarország</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Magyarország</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Magyarország</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1619,7 +1619,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Magyarország</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1634,7 +1634,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Magyarország</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1649,7 +1649,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Izland</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Izland</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Izland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Izland</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Izland</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Írország</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1735,7 +1735,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Írország</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Írország</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1765,7 +1765,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Írország</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Írország</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Olaszország</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Olaszország</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1823,7 +1823,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Olaszország</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Olaszország</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1853,7 +1853,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Olaszország</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Koszovó</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Koszovó</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Koszovó</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1911,7 +1911,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Koszovó</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kosovo*</t>
+          <t>Koszovó</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lettország</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lettország</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1967,7 +1967,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lettország</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lettország</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lettország</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2012,7 +2012,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Litvánia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2027,7 +2027,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Litvánia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Litvánia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Litvánia</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Litvánia</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2087,7 +2087,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Málta</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2177,7 +2177,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Málta</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2192,7 +2192,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Málta</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2207,7 +2207,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Málta</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2222,7 +2222,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Málta</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2237,7 +2237,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montenegró</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montenegró</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2267,7 +2267,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montenegró</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2282,7 +2282,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montenegró</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2297,7 +2297,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Montenegró</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2342,7 +2342,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2357,7 +2357,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hollandia</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2387,7 +2387,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Észak-Macedónia</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2402,7 +2402,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Észak-Macedónia</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Észak-Macedónia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2430,7 +2430,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Észak-Macedónia</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Észak-Macedónia</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Norvégia</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Norvégia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Norvégia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2503,7 +2503,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Norvégia</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Norvégia</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lengyelország</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lengyelország</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2563,7 +2563,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lengyelország</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lengyelország</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lengyelország</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Portugália</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2623,7 +2623,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Portugália</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Portugália</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2653,7 +2653,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Portugália</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Portugália</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2683,7 +2683,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Románia</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Románia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2713,7 +2713,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Románia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Románia</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2743,7 +2743,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Románia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Szerbia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2773,7 +2773,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Szerbia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Szerbia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2803,7 +2803,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Szerbia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Szerbia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2833,7 +2833,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Szlovákia</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Szlovákia</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2863,7 +2863,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Szlovákia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Szlovákia</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2893,7 +2893,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Szlovákia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Szlovénia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Szlovénia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Szlovénia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Szlovénia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Szlovénia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2983,7 +2983,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Spanyolország</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Spanyolország</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3013,7 +3013,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Spanyolország</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Spanyolország</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Spanyolország</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Svédország</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3073,7 +3073,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Svédország</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Svédország</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3103,7 +3103,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Svédország</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Svédország</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3133,7 +3133,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Svájc</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Svájc</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3163,7 +3163,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Svájc</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3176,7 +3176,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Svájc</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3191,7 +3191,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Svájc</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Törökország</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3219,7 +3219,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Törökország</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3234,7 +3234,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Törökország</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3249,7 +3249,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Törökország</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Türkiye</t>
+          <t>Törökország</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3279,7 +3279,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egyesült Királyság</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egyesült Királyság</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egyesült Királyság</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3322,7 +3322,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egyesült Királyság</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3335,7 +3335,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egyesült Királyság</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
